--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2677768.031338074</v>
+        <v>2675432.920136095</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>59.94668330577052</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>369.0088416485564</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>76.30362177848122</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>232.7071512581185</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>174.9754168716973</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882144</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>51.92096917925183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>225.9761332534908</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>37.59617708813283</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>196.7867454260345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409626</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079032687</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071327</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071327</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071327</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071327</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>490.3566394175252</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071327</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1401.388391530943</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1173.398840632926</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.6062614893956</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1798.734238163263</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.000696661112</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495405</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549932</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549932</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559527</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1889.318611635834</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1889.318611635834</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>20.61870490125375</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575583</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
@@ -26335,25 +26335,25 @@
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756577</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756577</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687582.4138164398</v>
+        <v>-687582.4138164397</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.3697594798</v>
+        <v>427169.3697594799</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615874</v>
+        <v>267748.0997615876</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.0877639863</v>
+        <v>209810.3498385506</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713413</v>
+        <v>535222.811645906</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459058</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.5495713413</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="J6" t="n">
-        <v>367652.3717613589</v>
+        <v>367617.6338359232</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="L6" t="n">
-        <v>486963.5795631507</v>
+        <v>486928.8416377152</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358296</v>
+        <v>450167.7837103936</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713416</v>
+        <v>535222.8116459058</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713413</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713415</v>
+        <v>535222.8116459055</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>294.7363583149124</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>42.53886112439761</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.94319932014662</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.8158470784725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>190.2974748993103</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902547</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>200.2166741445762</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>155.954236818771</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>152.1728482433091</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37309,7 +37309,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37552,7 +37552,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
